--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf5-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf5-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,7 +546,7 @@
         <v>0.7825479339666589</v>
       </c>
       <c r="J2">
-        <v>0.7825479339666589</v>
+        <v>0.7825479339666588</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N2">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q2">
-        <v>0.5901519018010001</v>
+        <v>0.519822721186</v>
       </c>
       <c r="R2">
-        <v>5.311367116209</v>
+        <v>4.678404490674</v>
       </c>
       <c r="S2">
-        <v>0.6459149365909939</v>
+        <v>0.6137887249021671</v>
       </c>
       <c r="T2">
-        <v>0.6459149365909937</v>
+        <v>0.613788724902167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,7 +608,7 @@
         <v>0.7825479339666589</v>
       </c>
       <c r="J3">
-        <v>0.7825479339666589</v>
+        <v>0.7825479339666588</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +623,22 @@
         <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q3">
         <v>0.07645574423199999</v>
       </c>
       <c r="R3">
-        <v>0.688101698088</v>
+        <v>0.6881016980879999</v>
       </c>
       <c r="S3">
-        <v>0.08367999329820314</v>
+        <v>0.09027630353774799</v>
       </c>
       <c r="T3">
-        <v>0.08367999329820314</v>
+        <v>0.090276303537748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,7 +670,7 @@
         <v>0.7825479339666589</v>
       </c>
       <c r="J4">
-        <v>0.7825479339666589</v>
+        <v>0.7825479339666588</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N4">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q4">
-        <v>0.04838147299600001</v>
+        <v>0.053904838287</v>
       </c>
       <c r="R4">
-        <v>0.4354332569640001</v>
+        <v>0.485143544583</v>
       </c>
       <c r="S4">
-        <v>0.05295300407746186</v>
+        <v>0.06364897225490175</v>
       </c>
       <c r="T4">
-        <v>0.05295300407746186</v>
+        <v>0.06364897225490175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03127533333333333</v>
+        <v>0.112551</v>
       </c>
       <c r="H5">
-        <v>0.09382599999999999</v>
+        <v>0.337653</v>
       </c>
       <c r="I5">
-        <v>0.2174520660333411</v>
+        <v>0.7825479339666589</v>
       </c>
       <c r="J5">
-        <v>0.2174520660333411</v>
+        <v>0.7825479339666588</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.243417666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N5">
-        <v>15.730253</v>
+        <v>0.334861</v>
       </c>
       <c r="O5">
-        <v>0.8253998362974575</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P5">
-        <v>0.8253998362974574</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q5">
-        <v>0.1639896353308889</v>
+        <v>0.012562980137</v>
       </c>
       <c r="R5">
-        <v>1.475906717978</v>
+        <v>0.113066821233</v>
       </c>
       <c r="S5">
-        <v>0.1794848997064637</v>
+        <v>0.01483393327184205</v>
       </c>
       <c r="T5">
-        <v>0.1794848997064636</v>
+        <v>0.01483393327184205</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03127533333333333</v>
+        <v>0.03127533333333334</v>
       </c>
       <c r="H6">
-        <v>0.09382599999999999</v>
+        <v>0.09382600000000001</v>
       </c>
       <c r="I6">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="J6">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6792986666666666</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N6">
-        <v>2.037896</v>
+        <v>13.855658</v>
       </c>
       <c r="O6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q6">
-        <v>0.02124529223288888</v>
+        <v>0.1444467741675556</v>
       </c>
       <c r="R6">
-        <v>0.191207630096</v>
+        <v>1.300020967508</v>
       </c>
       <c r="S6">
-        <v>0.02325274483329692</v>
+        <v>0.170557764636093</v>
       </c>
       <c r="T6">
-        <v>0.02325274483329692</v>
+        <v>0.170557764636093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,46 +847,170 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03127533333333333</v>
+        <v>0.03127533333333334</v>
       </c>
       <c r="H7">
-        <v>0.09382599999999999</v>
+        <v>0.09382600000000001</v>
       </c>
       <c r="I7">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="J7">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.037896</v>
+      </c>
+      <c r="O7">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P7">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q7">
+        <v>0.02124529223288889</v>
+      </c>
+      <c r="R7">
+        <v>0.191207630096</v>
+      </c>
+      <c r="S7">
+        <v>0.02508570768135554</v>
+      </c>
+      <c r="T7">
+        <v>0.02508570768135555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03127533333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.09382600000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.2174520660333412</v>
+      </c>
+      <c r="J8">
+        <v>0.2174520660333412</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.4298626666666667</v>
-      </c>
-      <c r="N7">
-        <v>1.289588</v>
-      </c>
-      <c r="O7">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="P7">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="Q7">
-        <v>0.01344409818755556</v>
-      </c>
-      <c r="R7">
-        <v>0.120996883688</v>
-      </c>
-      <c r="S7">
-        <v>0.0147144214935805</v>
-      </c>
-      <c r="T7">
-        <v>0.01471442149358049</v>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.478937</v>
+      </c>
+      <c r="N8">
+        <v>1.436811</v>
+      </c>
+      <c r="O8">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P8">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q8">
+        <v>0.01497891432066667</v>
+      </c>
+      <c r="R8">
+        <v>0.134810228886</v>
+      </c>
+      <c r="S8">
+        <v>0.01768658495789586</v>
+      </c>
+      <c r="T8">
+        <v>0.01768658495789587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03127533333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.09382600000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.2174520660333412</v>
+      </c>
+      <c r="J9">
+        <v>0.2174520660333412</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.334861</v>
+      </c>
+      <c r="O9">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P9">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q9">
+        <v>0.003490963131777778</v>
+      </c>
+      <c r="R9">
+        <v>0.031418668186</v>
+      </c>
+      <c r="S9">
+        <v>0.004122008757996679</v>
+      </c>
+      <c r="T9">
+        <v>0.00412200875799668</v>
       </c>
     </row>
   </sheetData>
